--- a/20170714周报/技术支撑服务人员周报日报（20170710-20170715）.xlsx
+++ b/20170714周报/技术支撑服务人员周报日报（20170710-20170715）.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
   <si>
     <t>项目名称</t>
   </si>
@@ -99,9 +99,6 @@
   </si>
   <si>
     <t>1咪咕业务：个性化歌单推荐</t>
-  </si>
-  <si>
-    <t>代码</t>
   </si>
   <si>
     <t>王琪</t>
@@ -148,11 +145,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,70 +184,116 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,25 +307,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,19 +324,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -319,36 +333,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -363,187 +354,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,11 +583,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,22 +617,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -649,8 +625,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,6 +648,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -686,155 +671,155 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -855,14 +840,11 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1223,7 +1205,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1335,7 +1317,7 @@
       <c r="F4" s="7">
         <v>42931</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="8" t="s">
         <v>18</v>
       </c>
       <c r="H4" s="9" t="s">
@@ -1387,7 +1369,7 @@
       <c r="F6" s="7">
         <v>42931</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="8" t="s">
         <v>22</v>
       </c>
       <c r="H6" s="9" t="s">
@@ -1417,7 +1399,7 @@
         <v>24</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" ht="69" spans="1:8">
@@ -1428,7 +1410,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>11</v>
@@ -1440,7 +1422,7 @@
         <v>42931</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>13</v>
@@ -1453,8 +1435,8 @@
       <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>28</v>
+      <c r="C9" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>11</v>
@@ -1465,8 +1447,8 @@
       <c r="F9" s="7">
         <v>42931</v>
       </c>
-      <c r="G9" s="10" t="s">
-        <v>29</v>
+      <c r="G9" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>13</v>
@@ -1479,8 +1461,8 @@
       <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>30</v>
+      <c r="C10" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>11</v>
@@ -1491,8 +1473,8 @@
       <c r="F10" s="7">
         <v>42931</v>
       </c>
-      <c r="G10" s="10" t="s">
-        <v>31</v>
+      <c r="G10" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>13</v>
@@ -1505,8 +1487,8 @@
       <c r="B11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>32</v>
+      <c r="C11" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>11</v>
@@ -1517,10 +1499,10 @@
       <c r="F11" s="7">
         <v>42931</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="13" t="s">
+      <c r="G11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="12" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1531,8 +1513,8 @@
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>34</v>
+      <c r="C12" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>11</v>
@@ -1543,10 +1525,10 @@
       <c r="F12" s="7">
         <v>42931</v>
       </c>
-      <c r="G12" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" s="13" t="s">
+      <c r="G12" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="12" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1570,7 +1552,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/20170714周报/技术支撑服务人员周报日报（20170710-20170715）.xlsx
+++ b/20170714周报/技术支撑服务人员周报日报（20170710-20170715）.xlsx
@@ -113,7 +113,7 @@
     <t>范小燕</t>
   </si>
   <si>
-    <t>1.实现原歌词、翻译歌词的切换 2.专辑详情页信息补全</t>
+    <t>1.实现原歌词、翻译歌词的切换                                2.专辑详情页信息补全</t>
   </si>
   <si>
     <t>罗健</t>
@@ -144,10 +144,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -190,8 +190,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,35 +244,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,10 +275,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -256,44 +294,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,27 +324,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -354,181 +354,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,16 +569,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,34 +608,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -650,7 +641,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -671,10 +671,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -683,143 +683,143 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -848,6 +848,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -914,6 +917,93 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1398905</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>61595</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>2322830</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>899795</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13019405" y="5672455"/>
+              <a:ext cx="923925" cy="838200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>2452370</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>49530</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>3376295</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>887730</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1026" name="Object 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1026"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="14072870" y="5660390"/>
+              <a:ext cx="923925" cy="838200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1195,17 +1285,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1428,7 +1517,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" ht="34.5" spans="1:8">
+    <row r="9" ht="74" customHeight="1" spans="1:8">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -1447,7 +1536,7 @@
       <c r="F9" s="7">
         <v>42931</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="11" t="s">
         <v>28</v>
       </c>
       <c r="H9" s="9" t="s">
@@ -1487,7 +1576,7 @@
       <c r="B11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="12" t="s">
         <v>31</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -1502,7 +1591,7 @@
       <c r="G11" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="13" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1513,7 +1602,7 @@
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="12" t="s">
         <v>33</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -1528,7 +1617,7 @@
       <c r="G12" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="13" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1536,11 +1625,65 @@
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject shapeId="1025" progId="Word.Document.8" r:id="rId3" dvAspect="DVASPECT_ICON">
+          <objectPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>1398905</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>61595</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>2322830</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>899795</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject shapeId="1025" progId="Word.Document.8" r:id="rId3" dvAspect="DVASPECT_ICON"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject shapeId="1026" progId="Word.Document.8" r:id="rId5" dvAspect="DVASPECT_ICON">
+          <objectPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>2452370</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>49530</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>3376295</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>887730</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject shapeId="1026" progId="Word.Document.8" r:id="rId5" dvAspect="DVASPECT_ICON"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:A11"/>
   <sheetViews>

--- a/20170714周报/技术支撑服务人员周报日报（20170710-20170715）.xlsx
+++ b/20170714周报/技术支撑服务人员周报日报（20170710-20170715）.xlsx
@@ -10,12 +10,12 @@
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
   <si>
     <t>项目名称</t>
   </si>
@@ -93,6 +93,9 @@
     <t xml:space="preserve">1.梳理 UpdateMusicListServiceImple 、CreateMusicListServiceImpl 、QueryMusicListsByTagsServiceImpl 、InMusicListsServiceImpl 等接口的业务逻辑
 2.活动开发流程，配置总部校园营销活动整体流程，并完成部分接口逻辑代码
 </t>
+  </si>
+  <si>
+    <t>代码</t>
   </si>
   <si>
     <t>陈毅昌</t>
@@ -144,10 +147,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -199,7 +202,72 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,8 +281,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,8 +318,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,57 +334,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -301,43 +341,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -354,13 +357,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,73 +507,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,85 +525,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,6 +571,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -579,15 +591,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,17 +610,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,16 +638,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -665,16 +653,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -683,16 +686,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -701,118 +704,118 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1294,7 +1297,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1462,7 +1465,7 @@
         <v>22</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" ht="34.5" spans="1:8">
@@ -1473,7 +1476,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>11</v>
@@ -1485,7 +1488,7 @@
         <v>42931</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>13</v>
@@ -1499,7 +1502,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>11</v>
@@ -1511,7 +1514,7 @@
         <v>42931</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>13</v>
@@ -1525,7 +1528,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>11</v>
@@ -1537,7 +1540,7 @@
         <v>42931</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>13</v>
@@ -1551,7 +1554,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>11</v>
@@ -1563,7 +1566,7 @@
         <v>42931</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>13</v>
@@ -1577,7 +1580,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>11</v>
@@ -1589,7 +1592,7 @@
         <v>42931</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H11" s="13" t="s">
         <v>13</v>
@@ -1603,7 +1606,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>11</v>
@@ -1615,7 +1618,7 @@
         <v>42931</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H12" s="13" t="s">
         <v>13</v>
@@ -1695,7 +1698,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/20170714周报/技术支撑服务人员周报日报（20170710-20170715）.xlsx
+++ b/20170714周报/技术支撑服务人员周报日报（20170710-20170715）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -70,6 +70,9 @@
 2.在Nginx上做了反向代理，和负载均衡             3.从redis里面取出黑名单，用lua脚本 禁止黑名单用户访问服务器</t>
   </si>
   <si>
+    <t>代码</t>
+  </si>
+  <si>
     <t>咪咕音乐后台</t>
   </si>
   <si>
@@ -93,9 +96,6 @@
     <t xml:space="preserve">1.梳理 UpdateMusicListServiceImple 、CreateMusicListServiceImpl 、QueryMusicListsByTagsServiceImpl 、InMusicListsServiceImpl 等接口的业务逻辑
 2.活动开发流程，配置总部校园营销活动整体流程，并完成部分接口逻辑代码
 </t>
-  </si>
-  <si>
-    <t>代码</t>
   </si>
   <si>
     <t>陈毅昌</t>
@@ -148,9 +148,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -193,6 +193,97 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -201,13 +292,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -216,7 +301,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,27 +329,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -259,87 +337,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -369,19 +369,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,145 +519,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,15 +571,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -591,6 +582,45 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,39 +642,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -654,17 +651,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -674,10 +674,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -686,136 +686,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1297,7 +1297,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1387,18 +1387,18 @@
         <v>15</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" ht="51.75" spans="1:8">
       <c r="A4" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>11</v>
@@ -1410,7 +1410,7 @@
         <v>42931</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>13</v>
@@ -1424,7 +1424,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>11</v>
@@ -1436,7 +1436,7 @@
         <v>42931</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>13</v>
@@ -1450,7 +1450,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>11</v>
@@ -1462,10 +1462,10 @@
         <v>42931</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" ht="34.5" spans="1:8">
